--- a/rodrigo_dados_tel/warren.xlsx
+++ b/rodrigo_dados_tel/warren.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13275"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -62,9 +62,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0E+00"/>
+    <numFmt numFmtId="164" formatCode="0.0E+00"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -97,11 +97,11 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -415,11 +415,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -435,15 +435,15 @@
       <c r="A1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1"/>
+      <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -483,13 +483,13 @@
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>1.9599999999999999E-3</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>7.1912430711500001E-4</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>7.4063844415300003E-4</v>
       </c>
     </row>
